--- a/圖表範例.xlsx
+++ b/圖表範例.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="7605" tabRatio="923" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="日期序列" sheetId="2" r:id="rId1"/>
-    <sheet name="時間序列" sheetId="1" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="圓餅圖" sheetId="8" r:id="rId1"/>
+    <sheet name="長條圖或折線圖" sheetId="7" r:id="rId2"/>
+    <sheet name="圖例" sheetId="6" r:id="rId3"/>
+    <sheet name="組圖" sheetId="12" r:id="rId4"/>
+    <sheet name="輔助線" sheetId="9" r:id="rId5"/>
+    <sheet name="輔助線(2)" sheetId="10" r:id="rId6"/>
+    <sheet name="程式label" sheetId="11" r:id="rId7"/>
+    <sheet name="日期序列" sheetId="2" r:id="rId8"/>
+    <sheet name="時間序列" sheetId="1" r:id="rId9"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +80,159 @@
     <t>直條圖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A和B誰比較多？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C和D誰比較多？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對照組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確診數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡率 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.appspro.com/Utilities/ChartLabeler.htm</t>
+  </si>
+  <si>
+    <t>死亡率 5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各國確診數與死亡數比較</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪種圖更容易判斷數值大小？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長條圖的最小值若不是從0開始，則會誤解實際高度。其次，預設值的數值小數點不整齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻度可以再減少一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>將對照組化成輔助線。輔助線是由另外一組數列以XY連線散布圖所繪製</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔助線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ChartLabeler進行標記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選定末點加入資料標籤，設定為數列名稱。調整線條粗細。減少刻度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel 2016可以用儲存格的數值來做標籤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +245,39 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -130,12 +314,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,21 +353,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,6 +408,2301 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圓餅圖!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>數量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>圓餅圖!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圓餅圖!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16212053912841315"/>
+          <c:y val="7.3461220032059751E-2"/>
+          <c:w val="0.66998831439776318"/>
+          <c:h val="0.73897056492099567"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="4"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="86697088"/>
+        <c:axId val="86698624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="86697088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86698624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86698624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="86697088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19968824730242052"/>
+          <c:y val="0.1423764287528575"/>
+          <c:w val="0.58549693788276469"/>
+          <c:h val="0.63888544577089157"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>輔助線!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>對照組</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>處理A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>處理B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>處理C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>輔助線!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="127235200"/>
+        <c:axId val="127236736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127235200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127236736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127236736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127235200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19968824730242052"/>
+          <c:y val="0.1423764287528575"/>
+          <c:w val="0.58549693788276469"/>
+          <c:h val="0.63888544577089157"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>處理</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>輔助線!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>處理A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>處理B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>處理C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>輔助線!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52365952"/>
+        <c:axId val="52375936"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>輔助線!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>對照組</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>輔助線!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>輔助線!$C$8:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52379008"/>
+        <c:axId val="52377472"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="52365952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52375936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52375936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52365952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52377472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="52379008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52379008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="52377472"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23003803668926406"/>
+          <c:y val="0.12846241677417441"/>
+          <c:w val="0.5770901230929022"/>
+          <c:h val="0.55970075774426498"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>死亡率 1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$12:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$12:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>死亡率 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$18:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1390374331550801E-2"/>
+                  <c:y val="-3.7667749158473837E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.06951871657754E-2"/>
+                  <c:y val="6.9051305263837248E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5650623885918005E-2"/>
+                  <c:y val="-3.3898305084745693E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5650623885918005E-2"/>
+                  <c:y val="-3.3898305084745728E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'輔助線(2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7825311942959002E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'輔助線(2)'!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52522368"/>
+        <c:axId val="52553216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52522368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>確診數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52553216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52553216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>死亡數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52522368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23003803668926406"/>
+          <c:y val="0.12846241677417441"/>
+          <c:w val="0.5770901230929022"/>
+          <c:h val="0.55970075774426498"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>程式label!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>死亡率 1%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>程式label!$B$12:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>程式label!$C$12:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>程式label!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>死亡率 5%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>程式label!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>程式label!$C$18:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>程式label!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>國家</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0543882549440678E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$2</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>A</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9456398164133226E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$3</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>B</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9456398164133226E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$4</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>C</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0543882549440678E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$5</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>D</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.832484174772271E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$6</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>E</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7219391693685348E-2"/>
+                  <c:y val="-2.6365348399246705E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:strRef>
+                  <c:f>程式label!$A$7</c:f>
+                  <c:strCache>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>F</c:v>
+                    </c:pt>
+                  </c:strCache>
+                </c:strRef>
+              </c:tx>
+              <c:spPr/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="新細明體"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>程式label!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>程式label!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52632960"/>
+        <c:axId val="52635520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52632960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>確診數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52635520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52635520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>死亡數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52632960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -319,11 +2829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85560320"/>
-        <c:axId val="85566208"/>
+        <c:axId val="52817280"/>
+        <c:axId val="52839936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="85560320"/>
+        <c:axId val="52817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,14 +2843,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85566208"/>
+        <c:crossAx val="52839936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="85566208"/>
+        <c:axId val="52839936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,14 +2872,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85560320"/>
+        <c:crossAx val="52817280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -392,188 +2901,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30071159361210636"/>
-          <c:y val="8.2405784182637554E-2"/>
-          <c:w val="0.59129123845895282"/>
-          <c:h val="0.72230079730599717"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時間序列!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>溫度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>時間序列!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>時間序列!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>35.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="100104448"/>
-        <c:axId val="101646336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="100104448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101646336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="101646336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="37"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
-                  <a:t>溫度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100104448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -689,11 +3017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85991424"/>
-        <c:axId val="85993344"/>
+        <c:axId val="52872320"/>
+        <c:axId val="52874240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85991424"/>
+        <c:axId val="52872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +3031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85993344"/>
+        <c:crossAx val="52874240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -711,7 +3039,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85993344"/>
+        <c:axId val="52874240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,14 +3061,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85991424"/>
+        <c:crossAx val="52872320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,7 +3090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -997,11 +3324,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86022784"/>
-        <c:axId val="86032768"/>
+        <c:axId val="53248000"/>
+        <c:axId val="53249536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86022784"/>
+        <c:axId val="53248000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,14 +3338,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="86032768"/>
+        <c:crossAx val="53249536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86032768"/>
+        <c:axId val="53249536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,14 +3367,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86022784"/>
+        <c:crossAx val="53248000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1072,7 +3398,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1305,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86048128"/>
-        <c:axId val="86074880"/>
+        <c:axId val="53270784"/>
+        <c:axId val="53272576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86048128"/>
+        <c:axId val="53270784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43930"/>
@@ -1331,12 +3657,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86074880"/>
+        <c:crossAx val="53272576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86074880"/>
+        <c:axId val="53272576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,14 +3684,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86048128"/>
+        <c:crossAx val="53270784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1390,7 +3715,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1527,11 +3852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96971392"/>
-        <c:axId val="97344128"/>
+        <c:axId val="53387264"/>
+        <c:axId val="53388800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96971392"/>
+        <c:axId val="53387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,14 +3866,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97344128"/>
+        <c:crossAx val="53388800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="97344128"/>
+        <c:axId val="53388800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,14 +3895,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96971392"/>
+        <c:crossAx val="53387264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1600,7 +3924,153 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19850568678915137"/>
+          <c:y val="7.5069994284457792E-2"/>
+          <c:w val="0.60149431321084867"/>
+          <c:h val="0.80813912297813151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圓餅圖!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>數量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>圓餅圖!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圓餅圖!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="125853696"/>
+        <c:axId val="125855232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125853696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125855232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125855232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125853696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1694,11 +4164,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="55491584"/>
-        <c:axId val="55569792"/>
+        <c:axId val="53408896"/>
+        <c:axId val="53410432"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="55491584"/>
+        <c:axId val="53408896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +4178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55569792"/>
+        <c:crossAx val="53410432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1717,7 +4187,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55569792"/>
+        <c:axId val="53410432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,14 +4210,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55491584"/>
+        <c:crossAx val="53408896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,7 +4233,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1887,11 +4356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86088320"/>
-        <c:axId val="86106880"/>
+        <c:axId val="53446912"/>
+        <c:axId val="53449088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86088320"/>
+        <c:axId val="53446912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +4370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86106880"/>
+        <c:crossAx val="53449088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1909,7 +4378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86106880"/>
+        <c:axId val="53449088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -1933,14 +4402,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86088320"/>
+        <c:crossAx val="53446912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -1964,7 +4432,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2182,11 +4650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86124416"/>
-        <c:axId val="86125952"/>
+        <c:axId val="53486720"/>
+        <c:axId val="53488256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86124416"/>
+        <c:axId val="53486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2198,13 +4666,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="86125952"/>
+        <c:crossAx val="53488256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86125952"/>
+        <c:axId val="53488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -2228,14 +4696,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86124416"/>
+        <c:crossAx val="53486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -2261,7 +4728,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2366,11 +4833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="98326784"/>
-        <c:axId val="98750464"/>
+        <c:axId val="53516544"/>
+        <c:axId val="53608448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="98326784"/>
+        <c:axId val="53516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98750464"/>
+        <c:crossAx val="53608448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2388,7 +4855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98750464"/>
+        <c:axId val="53608448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -2412,14 +4879,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98326784"/>
+        <c:crossAx val="53516544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -2444,7 +4910,1802 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30071159361210636"/>
+          <c:y val="8.2405784182637554E-2"/>
+          <c:w val="0.59129123845895282"/>
+          <c:h val="0.72230079730599717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時間序列!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>溫度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>時間序列!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>時間序列!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="53633792"/>
+        <c:axId val="53635328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53633792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53635328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="53635328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="37"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>溫度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53633792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="125891712"/>
+        <c:axId val="125893248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125891712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125893248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125893248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125891712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="125979648"/>
+        <c:axId val="125981824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125979648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125981824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125981824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125979648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124927360"/>
+        <c:axId val="124929152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124927360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124929152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124929152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124927360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="40435712"/>
+        <c:axId val="40437248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="40435712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40437248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="40437248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40435712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="130833792"/>
+        <c:axId val="131474560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130833792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131474560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131474560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130833792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16212053912841315"/>
+          <c:y val="7.3461220032059751E-2"/>
+          <c:w val="0.66998831439776318"/>
+          <c:h val="0.73897056492099567"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52673920"/>
+        <c:axId val="52679808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52673920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52679808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52679808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52673920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86087721552288476"/>
+          <c:y val="7.2628018813084602E-2"/>
+          <c:w val="7.0767762421305724E-2"/>
+          <c:h val="0.24272366960841305"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16212053912841315"/>
+          <c:y val="8.3562395609639697E-2"/>
+          <c:w val="0.43842901990192407"/>
+          <c:h val="0.72886940268830025"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="52766976"/>
+        <c:axId val="52768768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="52766976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52768768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="52768768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52766976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6031740150128293"/>
+          <c:y val="8.2728863437524849E-2"/>
+          <c:w val="0.16672621804627363"/>
+          <c:h val="0.42030859778891277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2607,15 +6868,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2637,7 +6898,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2882,7 +7143,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -3322,10 +7583,935 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="31" spans="4:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="D31:G33"/>
+    <mergeCell ref="I31:L33"/>
+    <mergeCell ref="N31:Q33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J26:M27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>B2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>B2</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G15:P16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19">
+        <f t="shared" ref="D2:D7" si="0">C2/B2</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19">
+        <f>C3/B3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>450</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13*D13</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>400</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B19*D19</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2">
+        <v>250</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="19">
+        <f t="shared" ref="D2:D7" si="0">C2/B2</f>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19">
+        <f>C3/B3</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>450</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>600</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="2">
+        <f>B13*D13</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>400</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B19*D19</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3344,7 +8530,9 @@
       <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="E1" s="7"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3366,9 +8554,7 @@
       <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -3385,7 +8571,6 @@
       <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3445,34 +8630,34 @@
       </c>
     </row>
     <row r="31" spans="10:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="R31" s="12" t="s">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="R31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
     </row>
     <row r="32" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3486,11 +8671,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -3567,7 +8752,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="D6" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,17 +8765,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/圖表範例.xlsx
+++ b/圖表範例.xlsx
@@ -2,30 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="7605" tabRatio="923" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15075" windowHeight="7605" tabRatio="923" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="視覺元素" sheetId="13" r:id="rId1"/>
     <sheet name="圓餅圖" sheetId="8" r:id="rId2"/>
     <sheet name="長條圖或折線圖" sheetId="7" r:id="rId3"/>
-    <sheet name="圖例" sheetId="6" r:id="rId4"/>
-    <sheet name="輔助數據作圖" sheetId="9" r:id="rId5"/>
-    <sheet name="輔助背景-垂直" sheetId="14" r:id="rId6"/>
-    <sheet name="輔助背景-水平" sheetId="15" r:id="rId7"/>
-    <sheet name="輔助背景-用儲存格" sheetId="12" r:id="rId8"/>
-    <sheet name="輔助線-誤差線" sheetId="16" r:id="rId9"/>
-    <sheet name="輔助線與標記資料點" sheetId="11" r:id="rId10"/>
-    <sheet name="日期序列" sheetId="2" r:id="rId11"/>
-    <sheet name="時間序列" sheetId="1" r:id="rId12"/>
+    <sheet name="圖例格線刻度" sheetId="6" r:id="rId4"/>
+    <sheet name="橫條圖" sheetId="17" r:id="rId5"/>
+    <sheet name="輔助數據作圖" sheetId="9" r:id="rId6"/>
+    <sheet name="輔助背景-垂直" sheetId="14" r:id="rId7"/>
+    <sheet name="輔助背景-水平" sheetId="15" r:id="rId8"/>
+    <sheet name="輔助背景-用儲存格" sheetId="12" r:id="rId9"/>
+    <sheet name="輔助線-誤差線" sheetId="16" r:id="rId10"/>
+    <sheet name="輔助線與標記資料點" sheetId="11" r:id="rId11"/>
+    <sheet name="日期序列" sheetId="2" r:id="rId12"/>
+    <sheet name="時間序列" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,6 +421,46 @@
     <t>輔助數據</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>如果再加上格線呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是用圖例標示呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>順序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入兩組重複的數列。上面那組將無填色無線條，顯示標籤為類別。下面那組顯示數值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻度很多，看起來如何？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -634,12 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -648,9 +683,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -709,14 +741,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,7 +913,815 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$B$1</c:f>
+              <c:f>圖例格線刻度!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.5151515151515152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.5151515151515152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.0303030303030297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54959104"/>
+        <c:axId val="54981376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54959104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54981376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54981376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54959104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1733250990684988"/>
+          <c:y val="4.3158355205599297E-2"/>
+          <c:w val="0.60649624679268044"/>
+          <c:h val="0.74907142289032047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55334400"/>
+        <c:axId val="55335936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55334400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55335936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55335936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55334400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8011198600174978"/>
+          <c:y val="8.7779368488029905E-2"/>
+          <c:w val="0.13365094069123712"/>
+          <c:h val="0.24368050584586018"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.0583587765814993E-2"/>
+          <c:y val="8.3562395609639697E-2"/>
+          <c:w val="0.71573281352860207"/>
+          <c:h val="0.74907142289032047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +1785,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -966,7 +1815,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1001,7 +1850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$C$1</c:f>
+              <c:f>圖例格線刻度!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1060,7 +1909,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1090,7 +1939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1125,7 +1974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$D$1</c:f>
+              <c:f>圖例格線刻度!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,7 +1986,7 @@
           <c:spPr>
             <a:ln w="19050">
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1148,13 +1997,13 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx2">
+                  <a:schemeClr val="accent1">
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1186,7 +2035,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1216,7 +2065,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1254,11 +2103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127064704"/>
-        <c:axId val="127082880"/>
+        <c:axId val="37339520"/>
+        <c:axId val="37341056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127064704"/>
+        <c:axId val="37339520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,12 +2117,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127082880"/>
+        <c:crossAx val="37341056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127082880"/>
+        <c:axId val="37341056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,10 +2132,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127064704"/>
+        <c:crossAx val="37339520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1307,7 +2155,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1328,21 +2176,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1733250990684988"/>
-          <c:y val="4.3158355205599297E-2"/>
-          <c:w val="0.60649624679268044"/>
+          <c:x val="9.5182743850829726E-2"/>
+          <c:y val="8.3562395609639697E-2"/>
+          <c:w val="0.70270349756769002"/>
           <c:h val="0.74907142289032047"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$B$1</c:f>
+              <c:f>圖例格線刻度!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1351,9 +2199,62 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.5151515151515152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1380,10 +2281,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1410,7 +2311,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1418,7 +2319,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$C$1</c:f>
+              <c:f>圖例格線刻度!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1427,9 +2328,57 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.5151515151515152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1456,10 +2405,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1486,7 +2435,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1494,7 +2443,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$D$1</c:f>
+              <c:f>圖例格線刻度!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1503,9 +2452,59 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.0303030303030297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+          </c:dLbls>
+          <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1532,10 +2531,10 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1562,7 +2561,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1573,13 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="54266112"/>
-        <c:axId val="52603520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="54266112"/>
+        <c:axId val="98663040"/>
+        <c:axId val="98664832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98663040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,15 +2586,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52603520"/>
+        <c:crossAx val="98664832"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="52603520"/>
+        <c:axId val="98664832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,9 +2602,410 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54266112"/>
+        <c:crossAx val="98663040"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0839638530525707E-2"/>
+          <c:y val="8.3562395609639697E-2"/>
+          <c:w val="0.69401728692708198"/>
+          <c:h val="0.74907142289032047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圖例格線刻度!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54065792"/>
+        <c:axId val="54117504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54065792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54117504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54117504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54065792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1619,10 +3014,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.8011198600174978"/>
-          <c:y val="8.7779368488029905E-2"/>
-          <c:w val="0.13365094069123712"/>
-          <c:h val="0.24368050584586018"/>
+          <c:x val="0.81418006788239417"/>
+          <c:y val="9.5331265410005583E-2"/>
+          <c:w val="0.1554181948754777"/>
+          <c:h val="0.27398353614889048"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1645,7 +3040,1168 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1670501603966171"/>
+          <c:y val="7.5070049398913194E-2"/>
+          <c:w val="0.66509162049188297"/>
+          <c:h val="0.83144901398565207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>橫條圖!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>項目</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="98456704"/>
+        <c:axId val="98458240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98456704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98458240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98458240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98456704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1670501603966171"/>
+          <c:y val="7.5070021841675369E-2"/>
+          <c:w val="0.66509162049188297"/>
+          <c:h val="0.83144907585852468"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>橫條圖!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自動排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$G$3:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70.000079999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.00009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.000050000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.000070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.000039999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.000059999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.000100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.000029999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="54451200"/>
+        <c:axId val="133432064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="54451200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133432064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="133432064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54451200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1670501603966171"/>
+          <c:y val="7.5070021841675369E-2"/>
+          <c:w val="0.66509162049188297"/>
+          <c:h val="0.83144907585852468"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>橫條圖!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>項目</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="100408320"/>
+        <c:axId val="100546048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="100408320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100546048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100546048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100408320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1670501603966171"/>
+          <c:y val="7.5070021841675369E-2"/>
+          <c:w val="0.66509162049188297"/>
+          <c:h val="0.83144907585852468"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>橫條圖!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自動排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$G$3:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70.000079999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.00009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.000050000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.000070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.000039999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.000059999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.000100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.000029999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="219059712"/>
+        <c:axId val="219257088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="219059712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219257088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="219257088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219059712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1670501603966171"/>
+          <c:y val="7.5070021841675369E-2"/>
+          <c:w val="0.66509162049188297"/>
+          <c:h val="0.83144907585852468"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$G$3:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70.000079999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.00009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.000050000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.000070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.000039999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.000059999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.000100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.000029999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>橫條圖!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>自動排序</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>橫條圖!$G$3:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>H</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>橫條圖!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70.000079999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.00009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.000050000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.000070000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.000039999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.000059999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.000100000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.000029999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="100509952"/>
+        <c:axId val="100546432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="100509952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="100546432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100546432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100509952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>圓餅圖!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>數量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>圓餅圖!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>圓餅圖!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="125747968"/>
+        <c:axId val="125749504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125747968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125749504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125749504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125747968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1731,11 +4287,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127426560"/>
-        <c:axId val="127428096"/>
+        <c:axId val="55380992"/>
+        <c:axId val="55395072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127426560"/>
+        <c:axId val="55380992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,7 +4300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127428096"/>
+        <c:crossAx val="55395072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +4308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127428096"/>
+        <c:axId val="55395072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,7 +4319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127426560"/>
+        <c:crossAx val="55380992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,7 +4336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1863,8 +4419,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127462400"/>
-        <c:axId val="127464192"/>
+        <c:axId val="55441664"/>
+        <c:axId val="55443456"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1954,11 +4510,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127475712"/>
-        <c:axId val="127465728"/>
+        <c:axId val="55446528"/>
+        <c:axId val="55444992"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="127462400"/>
+        <c:axId val="55441664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,7 +4524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127464192"/>
+        <c:crossAx val="55443456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1976,7 +4532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127464192"/>
+        <c:axId val="55443456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +4542,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127462400"/>
+        <c:crossAx val="55441664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127465728"/>
+        <c:axId val="55444992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -2008,12 +4564,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="127475712"/>
+        <c:crossAx val="55446528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127475712"/>
+        <c:axId val="55446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2030,7 +4586,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="127465728"/>
+        <c:crossAx val="55444992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,7 +4608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2135,8 +4691,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145171968"/>
-        <c:axId val="145173504"/>
+        <c:axId val="55472896"/>
+        <c:axId val="55474432"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2226,11 +4782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145176832"/>
-        <c:axId val="145175296"/>
+        <c:axId val="55494144"/>
+        <c:axId val="55492608"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="145171968"/>
+        <c:axId val="55472896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +4796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145173504"/>
+        <c:crossAx val="55474432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +4804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145173504"/>
+        <c:axId val="55474432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2259,13 +4815,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145171968"/>
+        <c:crossAx val="55472896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145175296"/>
+        <c:axId val="55492608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -2282,12 +4838,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="145176832"/>
+        <c:crossAx val="55494144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145176832"/>
+        <c:axId val="55494144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2304,7 +4860,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="145175296"/>
+        <c:crossAx val="55492608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2332,7 +4888,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2416,11 +4972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145367040"/>
-        <c:axId val="145368576"/>
+        <c:axId val="55530624"/>
+        <c:axId val="55532160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145367040"/>
+        <c:axId val="55530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +4986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145368576"/>
+        <c:crossAx val="55532160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2438,7 +4994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145368576"/>
+        <c:axId val="55532160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2448,7 +5004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145367040"/>
+        <c:crossAx val="55530624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,7 +5032,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2568,8 +5124,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145206272"/>
-        <c:axId val="145381632"/>
+        <c:axId val="55579008"/>
+        <c:axId val="55580544"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2664,11 +5220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54264960"/>
-        <c:axId val="99826688"/>
+        <c:axId val="55596160"/>
+        <c:axId val="55582080"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="145206272"/>
+        <c:axId val="55579008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +5234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145381632"/>
+        <c:crossAx val="55580544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +5242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145381632"/>
+        <c:axId val="55580544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,12 +5252,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145206272"/>
+        <c:crossAx val="55579008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99826688"/>
+        <c:axId val="55582080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2718,12 +5274,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54264960"/>
+        <c:crossAx val="55596160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54264960"/>
+        <c:axId val="55596160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2733,7 +5289,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99826688"/>
+        <c:crossAx val="55582080"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2760,7 +5317,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2844,11 +5401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143469952"/>
-        <c:axId val="143472512"/>
+        <c:axId val="55619968"/>
+        <c:axId val="55621504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143469952"/>
+        <c:axId val="55619968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2858,7 +5415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143472512"/>
+        <c:crossAx val="55621504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2866,7 +5423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143472512"/>
+        <c:axId val="55621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,7 +5433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143469952"/>
+        <c:crossAx val="55619968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,7 +5461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3091,8 +5648,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="133849088"/>
-        <c:axId val="135116672"/>
+        <c:axId val="56127872"/>
+        <c:axId val="56129408"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3182,11 +5739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="135289088"/>
-        <c:axId val="135121920"/>
+        <c:axId val="56145024"/>
+        <c:axId val="56130944"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="133849088"/>
+        <c:axId val="56127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +5753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135116672"/>
+        <c:crossAx val="56129408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +5762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135116672"/>
+        <c:axId val="56129408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3217,12 +5774,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133849088"/>
+        <c:crossAx val="56127872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135121920"/>
+        <c:axId val="56130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3234,12 +5791,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135289088"/>
+        <c:crossAx val="56145024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135289088"/>
+        <c:axId val="56145024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3251,7 +5808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135121920"/>
+        <c:crossAx val="56130944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,7 +5836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3651,8 +6208,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="151383040"/>
-        <c:axId val="151381504"/>
+        <c:axId val="55829248"/>
+        <c:axId val="55827456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4021,11 +6578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151364736"/>
-        <c:axId val="151379968"/>
+        <c:axId val="55819264"/>
+        <c:axId val="55825920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151364736"/>
+        <c:axId val="55819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +6602,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="151379968"/>
+        <c:crossAx val="55825920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4054,7 +6611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151379968"/>
+        <c:axId val="55825920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,13 +6621,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151364736"/>
+        <c:crossAx val="55819264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151381504"/>
+        <c:axId val="55827456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4087,12 +6644,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="151383040"/>
+        <c:crossAx val="55829248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="151383040"/>
+        <c:axId val="55829248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +6659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151381504"/>
+        <c:crossAx val="55827456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4133,160 +6690,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16573758141343445"/>
-          <c:y val="0.14376772935956295"/>
-          <c:w val="0.66821303587051617"/>
-          <c:h val="0.64319577316679066"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>圓餅圖!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>數量</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>圓餅圖!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>圓餅圖!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="39252736"/>
-        <c:axId val="52680192"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="39252736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52680192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52680192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39252736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4784,8 +7188,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="151348736"/>
-        <c:axId val="151365120"/>
+        <c:axId val="55113984"/>
+        <c:axId val="55373824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5032,11 +7436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151348736"/>
-        <c:axId val="151365120"/>
+        <c:axId val="55113984"/>
+        <c:axId val="55373824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151348736"/>
+        <c:axId val="55113984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5046,7 +7450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151365120"/>
+        <c:crossAx val="55373824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5056,7 +7460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151365120"/>
+        <c:axId val="55373824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +7470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151348736"/>
+        <c:crossAx val="55113984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5089,7 +7493,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5216,11 +7620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="161483008"/>
-        <c:axId val="161497088"/>
+        <c:axId val="55147136"/>
+        <c:axId val="55165696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161483008"/>
+        <c:axId val="55147136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5232,12 +7636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161497088"/>
+        <c:crossAx val="55165696"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161497088"/>
+        <c:axId val="55165696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5249,7 +7653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161483008"/>
+        <c:crossAx val="55147136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5275,7 +7679,138 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16573758141343445"/>
+          <c:y val="0.14376772935956295"/>
+          <c:w val="0.66821303587051617"/>
+          <c:h val="0.64319577316679066"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="126007168"/>
+        <c:axId val="126008704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="126007168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126008704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126008704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126007168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5522,11 +8057,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="173858176"/>
-        <c:axId val="173856256"/>
+        <c:axId val="55203712"/>
+        <c:axId val="55205248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173858176"/>
+        <c:axId val="55203712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5538,12 +8073,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173856256"/>
+        <c:crossAx val="55205248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173856256"/>
+        <c:axId val="55205248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5555,7 +8090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173858176"/>
+        <c:crossAx val="55203712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5578,7 +8113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5825,11 +8360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152118784"/>
-        <c:axId val="152120320"/>
+        <c:axId val="55239040"/>
+        <c:axId val="55240576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152118784"/>
+        <c:axId val="55239040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -5841,12 +8376,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152120320"/>
+        <c:crossAx val="55240576"/>
         <c:crossesAt val="5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152120320"/>
+        <c:axId val="55240576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5858,7 +8393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152118784"/>
+        <c:crossAx val="55239040"/>
         <c:crossesAt val="16"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5881,7 +8416,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -6496,11 +9031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127803776"/>
-        <c:axId val="127805696"/>
+        <c:axId val="55929856"/>
+        <c:axId val="55960704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127803776"/>
+        <c:axId val="55929856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -6523,19 +9058,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127805696"/>
+        <c:crossAx val="55960704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127805696"/>
+        <c:axId val="55960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -6558,14 +9092,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127803776"/>
+        <c:crossAx val="55929856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -6596,7 +9129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -6723,11 +9256,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127859328"/>
-        <c:axId val="127533440"/>
+        <c:axId val="55993088"/>
+        <c:axId val="55995008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="127859328"/>
+        <c:axId val="55993088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,14 +9270,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127533440"/>
+        <c:crossAx val="55995008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127533440"/>
+        <c:axId val="55995008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6766,14 +9299,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127859328"/>
+        <c:crossAx val="55993088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6796,7 +9328,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7029,11 +9561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127639936"/>
-        <c:axId val="127641472"/>
+        <c:axId val="56008064"/>
+        <c:axId val="56026240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127639936"/>
+        <c:axId val="56008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43930"/>
@@ -7055,12 +9587,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127641472"/>
+        <c:crossAx val="56026240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127641472"/>
+        <c:axId val="56026240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7082,14 +9614,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127639936"/>
+        <c:crossAx val="56008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7114,7 +9645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7251,11 +9782,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127657856"/>
-        <c:axId val="127659392"/>
+        <c:axId val="56063104"/>
+        <c:axId val="56064640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="127657856"/>
+        <c:axId val="56063104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7265,14 +9796,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127659392"/>
+        <c:crossAx val="56064640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127659392"/>
+        <c:axId val="56064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,14 +9825,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127657856"/>
+        <c:crossAx val="56063104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7324,7 +9854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7428,11 +9958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127736832"/>
-        <c:axId val="127767296"/>
+        <c:axId val="56088832"/>
+        <c:axId val="56094720"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="127736832"/>
+        <c:axId val="56088832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7442,7 +9972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127767296"/>
+        <c:crossAx val="56094720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7451,7 +9981,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127767296"/>
+        <c:axId val="56094720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,14 +10004,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127736832"/>
+        <c:crossAx val="56088832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7504,7 +10033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -7620,11 +10149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145379328"/>
-        <c:axId val="153186688"/>
+        <c:axId val="127278080"/>
+        <c:axId val="127296640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145379328"/>
+        <c:axId val="127278080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7634,7 +10163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153186688"/>
+        <c:crossAx val="127296640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7642,7 +10171,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153186688"/>
+        <c:axId val="127296640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7664,14 +10193,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145379328"/>
+        <c:crossAx val="127278080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7694,138 +10222,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16573758141343445"/>
-          <c:y val="0.14376772935956295"/>
-          <c:w val="0.66821303587051617"/>
-          <c:h val="0.64319577316679066"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>長條圖或折線圖!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>B</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>長條圖或折線圖!$B$2:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="126146048"/>
-        <c:axId val="126147584"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="126146048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126147584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="126147584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126146048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -8059,11 +10456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129909120"/>
-        <c:axId val="145304576"/>
+        <c:axId val="127330176"/>
+        <c:axId val="127331712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="129909120"/>
+        <c:axId val="127330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8073,14 +10470,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="145304576"/>
+        <c:crossAx val="127331712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145304576"/>
+        <c:axId val="127331712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8102,14 +10499,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129909120"/>
+        <c:crossAx val="127330176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8132,7 +10528,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -8255,11 +10651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129282048"/>
-        <c:axId val="129283968"/>
+        <c:axId val="127024128"/>
+        <c:axId val="127149184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129282048"/>
+        <c:axId val="127024128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8269,7 +10665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129283968"/>
+        <c:crossAx val="127149184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8277,7 +10673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129283968"/>
+        <c:axId val="127149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -8301,678 +10697,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129282048"/>
+        <c:crossAx val="127024128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19660643381115822"/>
-          <c:y val="0.2092153218502659"/>
-          <c:w val="0.70082946362473919"/>
-          <c:h val="0.53297854219124996"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時間序列!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>溫度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="12700">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>時間序列!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>時間序列!$B$2:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>35.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時間序列!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>輔助</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>時間序列!$A$2:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>時間序列!$D$2:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="129645184"/>
-        <c:axId val="129646976"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="129645184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="129646976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="129646976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="37"/>
-          <c:min val="34"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
-                  <a:t>溫度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129645184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="accent2"/>
-      </a:solidFill>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30071159361210636"/>
-          <c:y val="8.2405784182637554E-2"/>
-          <c:w val="0.59129123845895282"/>
-          <c:h val="0.72230079730599717"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時間序列!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>溫度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>時間序列!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>時間序列!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>35.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="129683456"/>
-        <c:axId val="129684992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="129683456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129684992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129684992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="37"/>
-          <c:min val="34"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
-                  <a:t>溫度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129683456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30071159361210636"/>
-          <c:y val="8.2405784182637554E-2"/>
-          <c:w val="0.59129123845895282"/>
-          <c:h val="0.72230079730599717"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>時間序列!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>溫度</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>時間序列!$A$2:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>時間序列!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>35.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="129383040"/>
-        <c:axId val="129393024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="129383040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129393024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="129393024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="37"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
-                  <a:t>溫度</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129383040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -9090,11 +10824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126307712"/>
-        <c:axId val="126313984"/>
+        <c:axId val="126769408"/>
+        <c:axId val="126771584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126307712"/>
+        <c:axId val="126769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9103,7 +10837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126313984"/>
+        <c:crossAx val="126771584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9111,7 +10845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126313984"/>
+        <c:axId val="126771584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -9123,7 +10857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126307712"/>
+        <c:crossAx val="126769408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9132,6 +10866,664 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19660643381115822"/>
+          <c:y val="0.2092153218502659"/>
+          <c:w val="0.70082946362473919"/>
+          <c:h val="0.53297854219124996"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時間序列!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>溫度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>時間序列!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>時間序列!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時間序列!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>輔助</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>時間序列!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>時間序列!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127178624"/>
+        <c:axId val="127180160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127178624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="127180160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="127180160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="37"/>
+          <c:min val="34"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>溫度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127178624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent2"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30071159361210636"/>
+          <c:y val="8.2405784182637554E-2"/>
+          <c:w val="0.59129123845895282"/>
+          <c:h val="0.72230079730599717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時間序列!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>溫度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>時間序列!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>時間序列!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="127228928"/>
+        <c:axId val="127230720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127228928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127230720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127230720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="37"/>
+          <c:min val="34"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>溫度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127228928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30071159361210636"/>
+          <c:y val="8.2405784182637554E-2"/>
+          <c:w val="0.59129123845895282"/>
+          <c:h val="0.72230079730599717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>時間序列!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>溫度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>時間序列!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>時間序列!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="127256448"/>
+        <c:axId val="127257984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127256448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127257984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127257984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="37"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVertRtl"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>溫度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);[Red]\(#,##0.0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="127256448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -9221,11 +11613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126350080"/>
-        <c:axId val="126351616"/>
+        <c:axId val="126792832"/>
+        <c:axId val="126794368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126350080"/>
+        <c:axId val="126792832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,7 +11626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126351616"/>
+        <c:crossAx val="126794368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9242,7 +11634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126351616"/>
+        <c:axId val="126794368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9252,7 +11644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126350080"/>
+        <c:crossAx val="126792832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9350,11 +11742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126834560"/>
-        <c:axId val="126836096"/>
+        <c:axId val="126826752"/>
+        <c:axId val="126836736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126834560"/>
+        <c:axId val="126826752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9363,7 +11755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126836096"/>
+        <c:crossAx val="126836736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9371,7 +11763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126836096"/>
+        <c:axId val="126836736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9381,7 +11773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126834560"/>
+        <c:crossAx val="126826752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9479,11 +11871,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126862464"/>
-        <c:axId val="126864000"/>
+        <c:axId val="126856192"/>
+        <c:axId val="126862080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126862464"/>
+        <c:axId val="126856192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9492,7 +11884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126864000"/>
+        <c:crossAx val="126862080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9500,7 +11892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126864000"/>
+        <c:axId val="126862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9510,7 +11902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126862464"/>
+        <c:crossAx val="126856192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -9564,7 +11956,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$B$1</c:f>
+              <c:f>圖例格線刻度!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9576,7 +11968,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9606,7 +11998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9640,7 +12032,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$C$1</c:f>
+              <c:f>圖例格線刻度!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9652,7 +12044,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9682,7 +12074,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9716,7 +12108,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$D$1</c:f>
+              <c:f>圖例格線刻度!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9728,7 +12120,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9758,7 +12150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9796,11 +12188,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126935040"/>
-        <c:axId val="126936576"/>
+        <c:axId val="55293824"/>
+        <c:axId val="55295360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126935040"/>
+        <c:axId val="55293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9810,7 +12202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126936576"/>
+        <c:crossAx val="55295360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9818,7 +12210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126936576"/>
+        <c:axId val="55295360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9829,7 +12221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126935040"/>
+        <c:crossAx val="55293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9901,7 +12293,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$B$1</c:f>
+              <c:f>圖例格線刻度!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9912,7 +12304,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9942,7 +12334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$B$2:$B$8</c:f>
+              <c:f>圖例格線刻度!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9977,7 +12369,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$C$1</c:f>
+              <c:f>圖例格線刻度!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9988,7 +12380,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10018,7 +12410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$C$2:$C$8</c:f>
+              <c:f>圖例格線刻度!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10053,7 +12445,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>圖例!$D$1</c:f>
+              <c:f>圖例格線刻度!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10064,7 +12456,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>圖例!$A$2:$A$8</c:f>
+              <c:f>圖例格線刻度!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10094,7 +12486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>圖例!$D$2:$D$8</c:f>
+              <c:f>圖例格線刻度!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10132,11 +12524,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127039744"/>
-        <c:axId val="127041536"/>
+        <c:axId val="124398592"/>
+        <c:axId val="125985536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127039744"/>
+        <c:axId val="124398592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10146,12 +12538,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127041536"/>
+        <c:crossAx val="125985536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127041536"/>
+        <c:axId val="125985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10162,7 +12554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127039744"/>
+        <c:crossAx val="124398592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10265,6 +12657,43 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10457,7 +12886,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10702,7 +13131,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -11140,10 +13569,269 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11370,7 +14058,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11407,7 +14095,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11442,7 +14130,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11479,7 +14167,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11546,47 +14234,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Chart Tamer">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11600,22 +14251,22 @@
         <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="1868CF"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="FF7F00"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="3C961A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="DB0000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="948A00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="922117"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -13087,6 +15738,157 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="H16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="R16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H16:L19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -13314,7 +16116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V75"/>
   <sheetViews>
@@ -13435,15 +16237,15 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="29" spans="1:9">
       <c r="E29" t="s">
@@ -13451,15 +16253,15 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" customHeight="1"/>
     <row r="44" spans="1:22">
@@ -13468,29 +16270,29 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="R45" s="19" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="R45" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
     </row>
     <row r="59" spans="1:9">
       <c r="E59" t="s">
@@ -13498,32 +16300,32 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="74" spans="4:9" ht="16.5" customHeight="1">
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="42"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="39"/>
     </row>
     <row r="75" spans="4:9">
-      <c r="D75" s="42"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="42"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13537,7 +16339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -13711,7 +16513,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31:L33"/>
     </sheetView>
   </sheetViews>
@@ -13745,116 +16547,116 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="31" spans="4:17" ht="16.5" customHeight="1">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
     </row>
     <row r="32" spans="4:17">
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13874,8 +16676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14001,57 +16803,66 @@
       <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20" t="s">
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-    </row>
-    <row r="29" spans="5:8" ht="16.5" customHeight="1">
-      <c r="F29" s="23" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+    </row>
+    <row r="29" spans="5:18" ht="16.5" customHeight="1">
+      <c r="F29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="5:8">
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N29" t="s">
+        <v>99</v>
+      </c>
+      <c r="R29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="5:18">
+      <c r="E30" s="20"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14066,10 +16877,287 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <f>B3+ROW()/100000</f>
+        <v>30.000029999999999</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX($A$3:$A$10,MATCH(H3,$D$3:$D$10,0))</f>
+        <v>F</v>
+      </c>
+      <c r="H3">
+        <f>LARGE($D$3:$D$10,F3)</f>
+        <v>70.000079999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="0">B4+ROW()/100000</f>
+        <v>40.000039999999998</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G10" si="1">INDEX($A$3:$A$10,MATCH(H4,$D$3:$D$10,0))</f>
+        <v>G</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">LARGE($D$3:$D$10,F4)</f>
+        <v>60.00009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>59.000050000000002</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>C</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>59.000050000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>39.000059999999998</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>50.000070000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>50.000070000000001</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>40.000039999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>70.000079999999997</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>D</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>39.000059999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>60.00009</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>H</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>34.000100000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>34.000100000000003</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>30.000029999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+    </row>
+    <row r="31" spans="10:22">
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+    </row>
+    <row r="45" spans="11:14">
+      <c r="K45" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" spans="11:14">
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K45:N46"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14083,11 +17171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
@@ -14161,7 +17249,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>67</v>
       </c>
       <c r="H16" s="15"/>
@@ -14190,30 +17278,30 @@
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
@@ -14282,28 +17370,28 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="30"/>
+      <c r="B35" s="27"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
@@ -14373,22 +17461,22 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
@@ -14467,30 +17555,30 @@
       <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
@@ -14514,11 +17602,11 @@
         <v>4</v>
       </c>
       <c r="C65" t="e">
-        <f>IF(B65&gt;$B$76,B65,NA())</f>
+        <f t="shared" ref="C65:C70" si="0">IF(B65&gt;$B$76,B65,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D65">
-        <f>IF(B65&lt;$B$76,B65,NA())</f>
+        <f t="shared" ref="D65:D70" si="1">IF(B65&lt;$B$76,B65,NA())</f>
         <v>4</v>
       </c>
     </row>
@@ -14530,11 +17618,11 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <f>IF(B66&gt;$B$76,B66,NA())</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="D66" t="e">
-        <f>IF(B66&lt;$B$76,B66,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14546,11 +17634,11 @@
         <v>4</v>
       </c>
       <c r="C67" t="e">
-        <f>IF(B67&gt;$B$76,B67,NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D67">
-        <f>IF(B67&lt;$B$76,B67,NA())</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -14562,11 +17650,11 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f>IF(B68&gt;$B$76,B68,NA())</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D68" t="e">
-        <f>IF(B68&lt;$B$76,B68,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14578,11 +17666,11 @@
         <v>3</v>
       </c>
       <c r="C69" t="e">
-        <f>IF(B69&gt;$B$76,B69,NA())</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="D69">
-        <f>IF(B69&lt;$B$76,B69,NA())</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -14594,11 +17682,11 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <f>IF(B70&gt;$B$76,B70,NA())</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D70" t="e">
-        <f>IF(B70&lt;$B$76,B70,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14647,11 +17735,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -14677,27 +17765,27 @@
       <c r="A2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="36">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>80</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="32">
         <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>70</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>0.625</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>82</v>
       </c>
       <c r="D3" s="2">
@@ -14706,15 +17794,15 @@
       <c r="E3" s="5">
         <v>70</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>83</v>
       </c>
       <c r="D4" s="2">
@@ -14723,15 +17811,15 @@
       <c r="E4" s="5">
         <v>70</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="40">
+      <c r="B5" s="37">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <v>80</v>
       </c>
       <c r="D5" s="2">
@@ -14740,15 +17828,15 @@
       <c r="E5" s="5">
         <v>70</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>0.75</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>60</v>
       </c>
       <c r="D6" s="2">
@@ -14757,15 +17845,15 @@
       <c r="E6" s="5">
         <v>70</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="40">
+      <c r="B7" s="37">
         <v>0.79166666666666596</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="29">
         <v>55</v>
       </c>
       <c r="D7" s="2">
@@ -14774,15 +17862,15 @@
       <c r="E7" s="5">
         <v>70</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="40">
+      <c r="B8" s="37">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="29">
         <v>40</v>
       </c>
       <c r="D8" s="2">
@@ -14791,15 +17879,15 @@
       <c r="E8" s="5">
         <v>70</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="40">
+      <c r="B9" s="37">
         <v>0.874999999999999</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="29">
         <v>30</v>
       </c>
       <c r="D9" s="2">
@@ -14808,15 +17896,15 @@
       <c r="E9" s="5">
         <v>70</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="40">
+      <c r="B10" s="37">
         <v>0.91666666666666596</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="29">
         <v>20</v>
       </c>
       <c r="D10" s="2">
@@ -14825,15 +17913,15 @@
       <c r="E10" s="5">
         <v>70</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="40">
+      <c r="B11" s="37">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="29">
         <v>18</v>
       </c>
       <c r="D11" s="2">
@@ -14842,15 +17930,15 @@
       <c r="E11" s="5">
         <v>70</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="40">
+      <c r="B12" s="37">
         <v>0.999999999999999</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>20</v>
       </c>
       <c r="D12" s="10">
@@ -14859,15 +17947,15 @@
       <c r="E12" s="5">
         <v>70</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="40">
+      <c r="B13" s="37">
         <v>1.0416666666666701</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="28">
         <v>22</v>
       </c>
       <c r="D13" s="10">
@@ -14876,15 +17964,15 @@
       <c r="E13" s="5">
         <v>70</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="40">
+      <c r="B14" s="37">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="28">
         <v>23</v>
       </c>
       <c r="D14" s="10">
@@ -14893,15 +17981,15 @@
       <c r="E14" s="5">
         <v>70</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="40">
+      <c r="B15" s="37">
         <v>1.125</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="28">
         <v>24</v>
       </c>
       <c r="D15" s="10">
@@ -14910,15 +17998,15 @@
       <c r="E15" s="5">
         <v>70</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="40">
+      <c r="B16" s="37">
         <v>1.1666666666666701</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="28">
         <v>20</v>
       </c>
       <c r="D16" s="10">
@@ -14927,15 +18015,15 @@
       <c r="E16" s="5">
         <v>70</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="40">
+      <c r="B17" s="37">
         <v>1.2083333333333299</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="28">
         <v>30</v>
       </c>
       <c r="D17" s="10">
@@ -14944,15 +18032,15 @@
       <c r="E17" s="5">
         <v>70</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="40">
+      <c r="B18" s="37">
         <v>1.25</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="28">
         <v>35</v>
       </c>
       <c r="D18" s="10">
@@ -14961,15 +18049,15 @@
       <c r="E18" s="5">
         <v>70</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="40">
+      <c r="B19" s="37">
         <v>1.2916666666666701</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="28">
         <v>40</v>
       </c>
       <c r="D19" s="10">
@@ -14978,15 +18066,15 @@
       <c r="E19" s="5">
         <v>70</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="40">
+      <c r="B20" s="37">
         <v>1.3333333333333299</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>43</v>
       </c>
       <c r="D20" s="10">
@@ -14995,15 +18083,15 @@
       <c r="E20" s="5">
         <v>70</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="40">
+      <c r="B21" s="37">
         <v>1.375</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <v>50</v>
       </c>
       <c r="D21" s="10">
@@ -15012,15 +18100,15 @@
       <c r="E21" s="5">
         <v>70</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40">
+      <c r="B22" s="37">
         <v>1.4166666666666701</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="28">
         <v>55</v>
       </c>
       <c r="D22" s="10">
@@ -15029,15 +18117,15 @@
       <c r="E22" s="5">
         <v>70</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="40">
+      <c r="B23" s="37">
         <v>1.4583333333333299</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="28">
         <v>60</v>
       </c>
       <c r="D23" s="10">
@@ -15046,15 +18134,15 @@
       <c r="E23" s="5">
         <v>70</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="40">
+      <c r="B24" s="37">
         <v>1.5</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="28">
         <v>65</v>
       </c>
       <c r="D24" s="10">
@@ -15063,15 +18151,15 @@
       <c r="E24" s="5">
         <v>70</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="40">
+      <c r="B25" s="37">
         <v>1.5416666666666701</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="28">
         <v>75</v>
       </c>
       <c r="D25" s="10">
@@ -15080,15 +18168,15 @@
       <c r="E25" s="5">
         <v>70</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="40">
+      <c r="B26" s="37">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="28">
         <v>80</v>
       </c>
       <c r="D26" s="2">
@@ -15097,15 +18185,15 @@
       <c r="E26" s="5">
         <v>70</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="40">
+      <c r="B27" s="37">
         <v>0.625</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="28">
         <v>82</v>
       </c>
       <c r="D27" s="2">
@@ -15114,15 +18202,15 @@
       <c r="E27" s="5">
         <v>70</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="40">
+      <c r="B28" s="37">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="28">
         <v>83</v>
       </c>
       <c r="D28" s="2">
@@ -15131,15 +18219,15 @@
       <c r="E28" s="5">
         <v>70</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="40">
+      <c r="B29" s="37">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="28">
         <v>80</v>
       </c>
       <c r="D29" s="2">
@@ -15148,15 +18236,15 @@
       <c r="E29" s="5">
         <v>70</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="40">
+      <c r="B30" s="37">
         <v>0.75</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>60</v>
       </c>
       <c r="D30" s="2">
@@ -15165,15 +18253,15 @@
       <c r="E30" s="5">
         <v>70</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="40">
+      <c r="B31" s="37">
         <v>0.79166666666666596</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="29">
         <v>55</v>
       </c>
       <c r="D31" s="2">
@@ -15182,15 +18270,15 @@
       <c r="E31" s="5">
         <v>70</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="40">
+      <c r="B32" s="37">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="29">
         <v>40</v>
       </c>
       <c r="D32" s="2">
@@ -15199,15 +18287,15 @@
       <c r="E32" s="5">
         <v>70</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F32" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="B33" s="40">
+      <c r="B33" s="37">
         <v>0.874999999999999</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="29">
         <v>30</v>
       </c>
       <c r="D33" s="2">
@@ -15216,15 +18304,15 @@
       <c r="E33" s="5">
         <v>70</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="B34" s="40">
+      <c r="B34" s="37">
         <v>0.91666666666666596</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="29">
         <v>20</v>
       </c>
       <c r="D34" s="2">
@@ -15233,24 +18321,24 @@
       <c r="E34" s="5">
         <v>70</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="B35" s="41">
+      <c r="B35" s="38">
         <v>0.95833333333333304</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="33">
         <v>18</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="34">
         <v>1</v>
       </c>
       <c r="E35" s="5">
         <v>70</v>
       </c>
-      <c r="F35" s="33">
+      <c r="F35" s="30">
         <v>80</v>
       </c>
     </row>
@@ -15258,10 +18346,10 @@
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="37">
         <v>0.999999999999999</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="28">
         <v>20</v>
       </c>
       <c r="D36" s="10">
@@ -15270,32 +18358,32 @@
       <c r="E36" s="5">
         <v>70</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="B37" s="39">
+      <c r="B37" s="36">
         <v>1.0416666666666701</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="31">
         <v>22</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="35">
         <v>1</v>
       </c>
       <c r="E37" s="5">
         <v>70</v>
       </c>
-      <c r="F37" s="33">
+      <c r="F37" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="B38" s="40">
+      <c r="B38" s="37">
         <v>1.0833333333333299</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="28">
         <v>23</v>
       </c>
       <c r="D38" s="10">
@@ -15304,15 +18392,15 @@
       <c r="E38" s="5">
         <v>70</v>
       </c>
-      <c r="F38" s="33">
+      <c r="F38" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="40">
+      <c r="B39" s="37">
         <v>1.125</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="28">
         <v>24</v>
       </c>
       <c r="D39" s="10">
@@ -15321,15 +18409,15 @@
       <c r="E39" s="5">
         <v>70</v>
       </c>
-      <c r="F39" s="33">
+      <c r="F39" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="40">
+      <c r="B40" s="37">
         <v>1.1666666666666701</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="28">
         <v>20</v>
       </c>
       <c r="D40" s="10">
@@ -15338,15 +18426,15 @@
       <c r="E40" s="5">
         <v>70</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="B41" s="40">
+      <c r="B41" s="37">
         <v>1.2083333333333299</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="28">
         <v>30</v>
       </c>
       <c r="D41" s="10">
@@ -15355,15 +18443,15 @@
       <c r="E41" s="5">
         <v>70</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="B42" s="40">
+      <c r="B42" s="37">
         <v>1.25</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="28">
         <v>35</v>
       </c>
       <c r="D42" s="10">
@@ -15372,15 +18460,15 @@
       <c r="E42" s="5">
         <v>70</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" s="40">
+      <c r="B43" s="37">
         <v>1.2916666666666701</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="28">
         <v>40</v>
       </c>
       <c r="D43" s="10">
@@ -15389,15 +18477,15 @@
       <c r="E43" s="5">
         <v>70</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="B44" s="40">
+      <c r="B44" s="37">
         <v>1.3333333333333299</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="28">
         <v>43</v>
       </c>
       <c r="D44" s="10">
@@ -15406,15 +18494,15 @@
       <c r="E44" s="5">
         <v>70</v>
       </c>
-      <c r="F44" s="33">
+      <c r="F44" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45" s="40">
+      <c r="B45" s="37">
         <v>1.375</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="28">
         <v>50</v>
       </c>
       <c r="D45" s="10">
@@ -15423,15 +18511,15 @@
       <c r="E45" s="5">
         <v>70</v>
       </c>
-      <c r="F45" s="33">
+      <c r="F45" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="40">
+      <c r="B46" s="37">
         <v>1.4166666666666701</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="28">
         <v>55</v>
       </c>
       <c r="D46" s="10">
@@ -15440,15 +18528,15 @@
       <c r="E46" s="5">
         <v>70</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="40">
+      <c r="B47" s="37">
         <v>1.4583333333333299</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="28">
         <v>60</v>
       </c>
       <c r="D47" s="10">
@@ -15457,15 +18545,15 @@
       <c r="E47" s="5">
         <v>70</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F47" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="40">
+      <c r="B48" s="37">
         <v>1.5</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="28">
         <v>65</v>
       </c>
       <c r="D48" s="10">
@@ -15474,15 +18562,15 @@
       <c r="E48" s="5">
         <v>70</v>
       </c>
-      <c r="F48" s="33">
+      <c r="F48" s="30">
         <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="40">
+      <c r="B49" s="37">
         <v>1.5416666666666701</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="28">
         <v>75</v>
       </c>
       <c r="D49" s="10">
@@ -15491,7 +18579,7 @@
       <c r="E49" s="5">
         <v>70</v>
       </c>
-      <c r="F49" s="33">
+      <c r="F49" s="30">
         <v>80</v>
       </c>
     </row>
@@ -15502,7 +18590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
@@ -15975,7 +19063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -16029,15 +19117,15 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -16051,15 +19139,15 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="18.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -16073,15 +19161,15 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -16095,17 +19183,17 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -16119,49 +19207,49 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="18.75" customHeight="1">
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1">
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="14" spans="1:16" ht="15.75" customHeight="1"/>
@@ -16171,155 +19259,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="2">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="2">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="2">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="H16" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="R16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12">
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="8:12">
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="8:12">
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H16:L19"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/圖表範例.xlsx
+++ b/圖表範例.xlsx
@@ -20,18 +20,15 @@
     <sheet name="輔助線與標記資料點" sheetId="11" r:id="rId11"/>
     <sheet name="日期序列" sheetId="2" r:id="rId12"/>
     <sheet name="時間序列" sheetId="1" r:id="rId13"/>
-    <sheet name="組圖(1)" sheetId="18" r:id="rId14"/>
-    <sheet name="組圖" sheetId="19" r:id="rId15"/>
+    <sheet name="組圖" sheetId="19" r:id="rId14"/>
+    <sheet name="組圖(1)" sheetId="18" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="122">
   <si>
     <t>時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +491,30 @@
     <t>平滑度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -780,6 +801,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -791,12 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1333,11 +1354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110624768"/>
-        <c:axId val="110626304"/>
+        <c:axId val="127189376"/>
+        <c:axId val="127190912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110624768"/>
+        <c:axId val="127189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1368,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110626304"/>
+        <c:crossAx val="127190912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110626304"/>
+        <c:axId val="127190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110624768"/>
+        <c:crossAx val="127189376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1654,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110647552"/>
-        <c:axId val="110653440"/>
+        <c:axId val="127875712"/>
+        <c:axId val="127881600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110647552"/>
+        <c:axId val="127875712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +1689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110653440"/>
+        <c:crossAx val="127881600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1676,7 +1697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110653440"/>
+        <c:axId val="127881600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110647552"/>
+        <c:crossAx val="127875712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,11 +2162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110758144"/>
-        <c:axId val="110784512"/>
+        <c:axId val="127912960"/>
+        <c:axId val="127914752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110758144"/>
+        <c:axId val="127912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,12 +2176,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110784512"/>
+        <c:crossAx val="127914752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110784512"/>
+        <c:axId val="127914752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110758144"/>
+        <c:crossAx val="127912960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2610,11 +2631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110807680"/>
-        <c:axId val="110825856"/>
+        <c:axId val="127950208"/>
+        <c:axId val="127968384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110807680"/>
+        <c:axId val="127950208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,12 +2645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110825856"/>
+        <c:crossAx val="127968384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110825856"/>
+        <c:axId val="127968384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110807680"/>
+        <c:crossAx val="127950208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3011,11 +3032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110846720"/>
-        <c:axId val="110848640"/>
+        <c:axId val="127628800"/>
+        <c:axId val="127630720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110846720"/>
+        <c:axId val="127628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,12 +3046,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110848640"/>
+        <c:crossAx val="127630720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110848640"/>
+        <c:axId val="127630720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110846720"/>
+        <c:crossAx val="127628800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3204,11 +3225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110012672"/>
-        <c:axId val="110018560"/>
+        <c:axId val="127651200"/>
+        <c:axId val="126624896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110012672"/>
+        <c:axId val="127651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3217,7 +3238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110018560"/>
+        <c:crossAx val="126624896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3225,7 +3246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110018560"/>
+        <c:axId val="126624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,7 +3257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110012672"/>
+        <c:crossAx val="127651200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3385,11 +3406,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110025728"/>
-        <c:axId val="110039808"/>
+        <c:axId val="126648704"/>
+        <c:axId val="126650240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110025728"/>
+        <c:axId val="126648704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110039808"/>
+        <c:crossAx val="126650240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110039808"/>
+        <c:axId val="126650240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3417,7 +3438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110025728"/>
+        <c:crossAx val="126648704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3566,11 +3587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110051328"/>
-        <c:axId val="110052864"/>
+        <c:axId val="126674048"/>
+        <c:axId val="126675584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110051328"/>
+        <c:axId val="126674048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3579,7 +3600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110052864"/>
+        <c:crossAx val="126675584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3587,7 +3608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110052864"/>
+        <c:axId val="126675584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,7 +3619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110051328"/>
+        <c:crossAx val="126674048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3747,11 +3768,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110076672"/>
-        <c:axId val="110078208"/>
+        <c:axId val="126695296"/>
+        <c:axId val="126696832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110076672"/>
+        <c:axId val="126695296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,7 +3781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110078208"/>
+        <c:crossAx val="126696832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3768,7 +3789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110078208"/>
+        <c:axId val="126696832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110076672"/>
+        <c:crossAx val="126695296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4039,11 +4060,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110173184"/>
-        <c:axId val="110179072"/>
+        <c:axId val="126742912"/>
+        <c:axId val="126744448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110173184"/>
+        <c:axId val="126742912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,7 +4073,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="110179072"/>
+        <c:crossAx val="126744448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4060,7 +4081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110179072"/>
+        <c:axId val="126744448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110173184"/>
+        <c:crossAx val="126742912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4191,11 +4212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="54166656"/>
-        <c:axId val="54168192"/>
+        <c:axId val="126441344"/>
+        <c:axId val="126442880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54166656"/>
+        <c:axId val="126441344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54168192"/>
+        <c:crossAx val="126442880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +4233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54168192"/>
+        <c:axId val="126442880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54166656"/>
+        <c:crossAx val="126441344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4325,11 +4346,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125583744"/>
-        <c:axId val="125585280"/>
+        <c:axId val="127804928"/>
+        <c:axId val="127806464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125583744"/>
+        <c:axId val="127804928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125585280"/>
+        <c:crossAx val="127806464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4346,7 +4367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125585280"/>
+        <c:axId val="127806464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125583744"/>
+        <c:crossAx val="127804928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4457,8 +4478,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125623680"/>
-        <c:axId val="125637760"/>
+        <c:axId val="127841024"/>
+        <c:axId val="127842560"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4548,11 +4569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125645184"/>
-        <c:axId val="125639296"/>
+        <c:axId val="127858176"/>
+        <c:axId val="127856640"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="125623680"/>
+        <c:axId val="127841024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4562,7 +4583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125637760"/>
+        <c:crossAx val="127842560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4570,7 +4591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125637760"/>
+        <c:axId val="127842560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,12 +4601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125623680"/>
+        <c:crossAx val="127841024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125639296"/>
+        <c:axId val="127856640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -4602,12 +4623,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125645184"/>
+        <c:crossAx val="127858176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125645184"/>
+        <c:axId val="127858176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4624,7 +4645,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125639296"/>
+        <c:crossAx val="127856640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4729,8 +4750,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125663104"/>
-        <c:axId val="125664640"/>
+        <c:axId val="128281600"/>
+        <c:axId val="128287488"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4820,11 +4841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125676160"/>
-        <c:axId val="125674624"/>
+        <c:axId val="128290816"/>
+        <c:axId val="128289024"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="125663104"/>
+        <c:axId val="128281600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,7 +4855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125664640"/>
+        <c:crossAx val="128287488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4842,7 +4863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125664640"/>
+        <c:axId val="128287488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4853,13 +4874,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125663104"/>
+        <c:crossAx val="128281600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125674624"/>
+        <c:axId val="128289024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4876,12 +4897,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125676160"/>
+        <c:crossAx val="128290816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125676160"/>
+        <c:axId val="128290816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4898,7 +4919,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125674624"/>
+        <c:crossAx val="128289024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5010,11 +5031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125712256"/>
-        <c:axId val="125713792"/>
+        <c:axId val="128297600"/>
+        <c:axId val="128336256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125712256"/>
+        <c:axId val="128297600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5024,7 +5045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125713792"/>
+        <c:crossAx val="128336256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5032,7 +5053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125713792"/>
+        <c:axId val="128336256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5042,7 +5063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125712256"/>
+        <c:crossAx val="128297600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5162,8 +5183,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125752448"/>
-        <c:axId val="125753984"/>
+        <c:axId val="128362368"/>
+        <c:axId val="128363904"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5258,11 +5279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125765504"/>
-        <c:axId val="125763968"/>
+        <c:axId val="128371328"/>
+        <c:axId val="128369792"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="125752448"/>
+        <c:axId val="128362368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5272,7 +5293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125753984"/>
+        <c:crossAx val="128363904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5280,7 +5301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125753984"/>
+        <c:axId val="128363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5290,12 +5311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125752448"/>
+        <c:crossAx val="128362368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125763968"/>
+        <c:axId val="128369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5312,12 +5333,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125765504"/>
+        <c:crossAx val="128371328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125765504"/>
+        <c:axId val="128371328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5327,7 +5348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125763968"/>
+        <c:crossAx val="128369792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5439,11 +5460,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125813888"/>
-        <c:axId val="125815424"/>
+        <c:axId val="128403328"/>
+        <c:axId val="128404864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125813888"/>
+        <c:axId val="128403328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5453,7 +5474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125815424"/>
+        <c:crossAx val="128404864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5461,7 +5482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125815424"/>
+        <c:axId val="128404864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5471,7 +5492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125813888"/>
+        <c:crossAx val="128403328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5686,8 +5707,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="125834368"/>
-        <c:axId val="125835904"/>
+        <c:axId val="128452480"/>
+        <c:axId val="128454016"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5777,11 +5798,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125847424"/>
-        <c:axId val="125845888"/>
+        <c:axId val="128465536"/>
+        <c:axId val="128464000"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="125834368"/>
+        <c:axId val="128452480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5791,7 +5812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125835904"/>
+        <c:crossAx val="128454016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5800,7 +5821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125835904"/>
+        <c:axId val="128454016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5812,12 +5833,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125834368"/>
+        <c:crossAx val="128452480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125845888"/>
+        <c:axId val="128464000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -5829,12 +5850,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125847424"/>
+        <c:crossAx val="128465536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125847424"/>
+        <c:axId val="128465536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5846,7 +5867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125845888"/>
+        <c:crossAx val="128464000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6246,8 +6267,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="125314560"/>
-        <c:axId val="125313024"/>
+        <c:axId val="128596224"/>
+        <c:axId val="128594688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6616,11 +6637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125304832"/>
-        <c:axId val="125307136"/>
+        <c:axId val="128582400"/>
+        <c:axId val="128584704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125304832"/>
+        <c:axId val="128582400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,7 +6661,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125307136"/>
+        <c:crossAx val="128584704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6649,7 +6670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125307136"/>
+        <c:axId val="128584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6659,13 +6680,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125304832"/>
+        <c:crossAx val="128582400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125313024"/>
+        <c:axId val="128594688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6682,12 +6703,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="125314560"/>
+        <c:crossAx val="128596224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="125314560"/>
+        <c:axId val="128596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,7 +6718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125313024"/>
+        <c:crossAx val="128594688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7226,8 +7247,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="125357056"/>
-        <c:axId val="125362944"/>
+        <c:axId val="128000000"/>
+        <c:axId val="128001536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7474,11 +7495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125357056"/>
-        <c:axId val="125362944"/>
+        <c:axId val="128000000"/>
+        <c:axId val="128001536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="125357056"/>
+        <c:axId val="128000000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7488,7 +7509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125362944"/>
+        <c:crossAx val="128001536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7498,7 +7519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125362944"/>
+        <c:axId val="128001536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7508,7 +7529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125357056"/>
+        <c:crossAx val="128000000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7658,11 +7679,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125427712"/>
-        <c:axId val="125429632"/>
+        <c:axId val="128636416"/>
+        <c:axId val="128637952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125427712"/>
+        <c:axId val="128636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -7674,12 +7695,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125429632"/>
+        <c:crossAx val="128637952"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125429632"/>
+        <c:axId val="128637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7691,7 +7712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125427712"/>
+        <c:crossAx val="128636416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7798,11 +7819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110311680"/>
-        <c:axId val="110329856"/>
+        <c:axId val="126815232"/>
+        <c:axId val="126845696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110311680"/>
+        <c:axId val="126815232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7811,7 +7832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110329856"/>
+        <c:crossAx val="126845696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7819,7 +7840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110329856"/>
+        <c:axId val="126845696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -7831,7 +7852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110311680"/>
+        <c:crossAx val="126815232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8095,11 +8116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125447168"/>
-        <c:axId val="125473536"/>
+        <c:axId val="128204800"/>
+        <c:axId val="128206336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125447168"/>
+        <c:axId val="128204800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -8111,12 +8132,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125473536"/>
+        <c:crossAx val="128206336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125473536"/>
+        <c:axId val="128206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8128,7 +8149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125447168"/>
+        <c:crossAx val="128204800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8398,11 +8419,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125498880"/>
-        <c:axId val="125500416"/>
+        <c:axId val="128223488"/>
+        <c:axId val="128241664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125498880"/>
+        <c:axId val="128223488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -8414,12 +8435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125500416"/>
+        <c:crossAx val="128241664"/>
         <c:crossesAt val="5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125500416"/>
+        <c:axId val="128241664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8431,7 +8452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125498880"/>
+        <c:crossAx val="128223488"/>
         <c:crossesAt val="16"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9069,11 +9090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126341504"/>
-        <c:axId val="126343424"/>
+        <c:axId val="128164992"/>
+        <c:axId val="128166912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126341504"/>
+        <c:axId val="128164992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -9102,12 +9123,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126343424"/>
+        <c:crossAx val="128166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126343424"/>
+        <c:axId val="128166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -9136,7 +9157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126341504"/>
+        <c:crossAx val="128164992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -9294,11 +9315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110868352"/>
-        <c:axId val="125243392"/>
+        <c:axId val="128773504"/>
+        <c:axId val="128772736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110868352"/>
+        <c:axId val="128773504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9308,14 +9329,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125243392"/>
+        <c:crossAx val="128772736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="125243392"/>
+        <c:axId val="128772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,7 +9364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110868352"/>
+        <c:crossAx val="128773504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9599,11 +9620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125264640"/>
-        <c:axId val="125266176"/>
+        <c:axId val="128103936"/>
+        <c:axId val="128105472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125264640"/>
+        <c:axId val="128103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43930"/>
@@ -9625,12 +9646,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125266176"/>
+        <c:crossAx val="128105472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125266176"/>
+        <c:axId val="128105472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9658,7 +9679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125264640"/>
+        <c:crossAx val="128103936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9820,11 +9841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="125532416"/>
-        <c:axId val="126132224"/>
+        <c:axId val="128752640"/>
+        <c:axId val="130618112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="125532416"/>
+        <c:axId val="128752640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9834,14 +9855,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126132224"/>
+        <c:crossAx val="130618112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126132224"/>
+        <c:axId val="130618112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9869,7 +9890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125532416"/>
+        <c:crossAx val="128752640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9996,11 +10017,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126225792"/>
-        <c:axId val="126239872"/>
+        <c:axId val="130638208"/>
+        <c:axId val="130639744"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="126225792"/>
+        <c:axId val="130638208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10010,7 +10031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126239872"/>
+        <c:crossAx val="130639744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10019,7 +10040,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126239872"/>
+        <c:axId val="130639744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10048,7 +10069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126225792"/>
+        <c:crossAx val="130638208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10187,11 +10208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126255488"/>
-        <c:axId val="126257408"/>
+        <c:axId val="130667648"/>
+        <c:axId val="130669568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126255488"/>
+        <c:axId val="130667648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10201,7 +10222,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126257408"/>
+        <c:crossAx val="130669568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10209,7 +10230,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126257408"/>
+        <c:axId val="130669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10237,7 +10258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126255488"/>
+        <c:crossAx val="130667648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10494,11 +10515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126430208"/>
-        <c:axId val="126432000"/>
+        <c:axId val="130719744"/>
+        <c:axId val="130721280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="126430208"/>
+        <c:axId val="130719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10508,14 +10529,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126432000"/>
+        <c:crossAx val="130721280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126432000"/>
+        <c:axId val="130721280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10543,7 +10564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126430208"/>
+        <c:crossAx val="130719744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10689,11 +10710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127353216"/>
-        <c:axId val="127355136"/>
+        <c:axId val="130438272"/>
+        <c:axId val="130440192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127353216"/>
+        <c:axId val="130438272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10703,7 +10724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127355136"/>
+        <c:crossAx val="130440192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10711,7 +10732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127355136"/>
+        <c:axId val="130440192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -10741,7 +10762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127353216"/>
+        <c:crossAx val="130438272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -10862,11 +10883,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110349312"/>
-        <c:axId val="110351488"/>
+        <c:axId val="126856576"/>
+        <c:axId val="126871040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110349312"/>
+        <c:axId val="126856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10875,7 +10896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110351488"/>
+        <c:crossAx val="126871040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10883,7 +10904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110351488"/>
+        <c:axId val="126871040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -10895,7 +10916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110349312"/>
+        <c:crossAx val="126856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11130,11 +11151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="127275008"/>
-        <c:axId val="127395328"/>
+        <c:axId val="130469888"/>
+        <c:axId val="130471424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="127275008"/>
+        <c:axId val="130469888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -11146,13 +11167,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="127395328"/>
+        <c:crossAx val="130471424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="127395328"/>
+        <c:axId val="130471424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -11182,7 +11203,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127275008"/>
+        <c:crossAx val="130469888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
@@ -11313,11 +11334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127308160"/>
-        <c:axId val="127309696"/>
+        <c:axId val="130512000"/>
+        <c:axId val="130513536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127308160"/>
+        <c:axId val="130512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11327,7 +11348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127309696"/>
+        <c:crossAx val="130513536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11335,7 +11356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127309696"/>
+        <c:axId val="130513536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -11365,7 +11386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127308160"/>
+        <c:crossAx val="130512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -11495,11 +11516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127330944"/>
-        <c:axId val="127078784"/>
+        <c:axId val="130547712"/>
+        <c:axId val="130549248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127330944"/>
+        <c:axId val="130547712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11509,7 +11530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127078784"/>
+        <c:crossAx val="130549248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11517,7 +11538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127078784"/>
+        <c:axId val="130549248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="37"/>
@@ -11547,7 +11568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127330944"/>
+        <c:crossAx val="130547712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11923,11 +11944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137062272"/>
-        <c:axId val="227281152"/>
+        <c:axId val="130885120"/>
+        <c:axId val="130886656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137062272"/>
+        <c:axId val="130885120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -11939,12 +11960,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="227281152"/>
+        <c:crossAx val="130886656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227281152"/>
+        <c:axId val="130886656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -11981,7 +12002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137062272"/>
+        <c:crossAx val="130885120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -12358,11 +12379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204344320"/>
-        <c:axId val="207294464"/>
+        <c:axId val="130938752"/>
+        <c:axId val="130940288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204344320"/>
+        <c:axId val="130938752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -12374,12 +12395,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="207294464"/>
+        <c:crossAx val="130940288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207294464"/>
+        <c:axId val="130940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -12416,7 +12437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204344320"/>
+        <c:crossAx val="130938752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -12626,11 +12647,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202408320"/>
-        <c:axId val="202409856"/>
+        <c:axId val="129069440"/>
+        <c:axId val="129070976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202408320"/>
+        <c:axId val="129069440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12640,7 +12661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202409856"/>
+        <c:crossAx val="129070976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12648,7 +12669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202409856"/>
+        <c:axId val="129070976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12671,21 +12692,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202408320"/>
+        <c:crossAx val="129069440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12886,11 +12905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202481664"/>
-        <c:axId val="202483200"/>
+        <c:axId val="129088896"/>
+        <c:axId val="130585728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202481664"/>
+        <c:axId val="129088896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12900,7 +12919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202483200"/>
+        <c:crossAx val="130585728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12908,7 +12927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202483200"/>
+        <c:axId val="130585728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12931,21 +12950,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202481664"/>
+        <c:crossAx val="129088896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13146,11 +13163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202472832"/>
-        <c:axId val="202503296"/>
+        <c:axId val="129120896"/>
+        <c:axId val="129126784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202472832"/>
+        <c:axId val="129120896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13160,7 +13177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202503296"/>
+        <c:crossAx val="129126784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13168,7 +13185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202503296"/>
+        <c:axId val="129126784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13198,21 +13215,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202472832"/>
+        <c:crossAx val="129120896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13410,11 +13425,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202419200"/>
-        <c:axId val="209937152"/>
+        <c:axId val="129148800"/>
+        <c:axId val="129150336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202419200"/>
+        <c:axId val="129148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13424,7 +13439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209937152"/>
+        <c:crossAx val="129150336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13432,7 +13447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="209937152"/>
+        <c:axId val="129150336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13455,21 +13470,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202419200"/>
+        <c:crossAx val="129148800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13667,11 +13680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202607232"/>
-        <c:axId val="202609024"/>
+        <c:axId val="131429504"/>
+        <c:axId val="131431040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202607232"/>
+        <c:axId val="131429504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13681,7 +13694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202609024"/>
+        <c:crossAx val="131431040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13689,7 +13702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202609024"/>
+        <c:axId val="131431040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13712,21 +13725,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202607232"/>
+        <c:crossAx val="131429504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13822,11 +13833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110383488"/>
-        <c:axId val="110385024"/>
+        <c:axId val="126515456"/>
+        <c:axId val="126517248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110383488"/>
+        <c:axId val="126515456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13835,7 +13846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110385024"/>
+        <c:crossAx val="126517248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13843,7 +13854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110385024"/>
+        <c:axId val="126517248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13853,7 +13864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110383488"/>
+        <c:crossAx val="126515456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14053,11 +14064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202733824"/>
-        <c:axId val="202735616"/>
+        <c:axId val="131457408"/>
+        <c:axId val="131458944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202733824"/>
+        <c:axId val="131457408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14067,7 +14078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202735616"/>
+        <c:crossAx val="131458944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14075,7 +14086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202735616"/>
+        <c:axId val="131458944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14105,21 +14116,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202733824"/>
+        <c:crossAx val="131457408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -14350,11 +14359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214513920"/>
-        <c:axId val="214532480"/>
+        <c:axId val="131509632"/>
+        <c:axId val="131515520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214513920"/>
+        <c:axId val="131509632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14364,7 +14373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214532480"/>
+        <c:crossAx val="131515520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14372,7 +14381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214532480"/>
+        <c:axId val="131515520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3300"/>
@@ -14414,7 +14423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214513920"/>
+        <c:crossAx val="131509632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
@@ -14682,11 +14691,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="214865792"/>
-        <c:axId val="214867328"/>
+        <c:axId val="131813760"/>
+        <c:axId val="131815296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214865792"/>
+        <c:axId val="131813760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14696,7 +14705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214867328"/>
+        <c:crossAx val="131815296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14704,7 +14713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214867328"/>
+        <c:axId val="131815296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -14742,7 +14751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214865792"/>
+        <c:crossAx val="131813760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
@@ -14982,11 +14991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="215235200"/>
-        <c:axId val="215356544"/>
+        <c:axId val="131836928"/>
+        <c:axId val="131601152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215235200"/>
+        <c:axId val="131836928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14996,7 +15005,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215356544"/>
+        <c:crossAx val="131601152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15004,7 +15013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215356544"/>
+        <c:axId val="131601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -15042,7 +15051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215235200"/>
+        <c:crossAx val="131836928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -15338,11 +15347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201517696"/>
-        <c:axId val="201751552"/>
+        <c:axId val="131622400"/>
+        <c:axId val="131624320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201517696"/>
+        <c:axId val="131622400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -15354,12 +15363,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="201751552"/>
+        <c:crossAx val="131624320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201751552"/>
+        <c:axId val="131624320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3700"/>
@@ -15397,7 +15406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201517696"/>
+        <c:crossAx val="131622400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -15703,11 +15712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220963968"/>
-        <c:axId val="220966272"/>
+        <c:axId val="131674880"/>
+        <c:axId val="131676800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220963968"/>
+        <c:axId val="131674880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -15719,12 +15728,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="220966272"/>
+        <c:crossAx val="131676800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220966272"/>
+        <c:axId val="131676800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -15761,7 +15770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220963968"/>
+        <c:crossAx val="131674880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -16123,11 +16132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86501248"/>
-        <c:axId val="102186368"/>
+        <c:axId val="131736704"/>
+        <c:axId val="131738240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86501248"/>
+        <c:axId val="131736704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -16139,12 +16148,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="102186368"/>
+        <c:crossAx val="131738240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102186368"/>
+        <c:axId val="131738240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -16181,7 +16190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86501248"/>
+        <c:crossAx val="131736704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -16557,11 +16566,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201821184"/>
-        <c:axId val="202246400"/>
+        <c:axId val="131781760"/>
+        <c:axId val="131783296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201821184"/>
+        <c:axId val="131781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -16573,12 +16582,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="202246400"/>
+        <c:crossAx val="131783296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202246400"/>
+        <c:axId val="131783296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3700"/>
@@ -16616,7 +16625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201821184"/>
+        <c:crossAx val="131781760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -17011,11 +17020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210119296"/>
-        <c:axId val="210122240"/>
+        <c:axId val="131901312"/>
+        <c:axId val="131902848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210119296"/>
+        <c:axId val="131901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.75000000000000011"/>
@@ -17027,12 +17036,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="210122240"/>
+        <c:crossAx val="131902848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210122240"/>
+        <c:axId val="131902848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -17069,7 +17078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210119296"/>
+        <c:crossAx val="131901312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -17085,6 +17094,365 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>day</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140832128"/>
+        <c:axId val="141231616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140832128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141231616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141231616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140832128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -17174,11 +17542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110404736"/>
-        <c:axId val="110406272"/>
+        <c:axId val="126524800"/>
+        <c:axId val="126538880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110404736"/>
+        <c:axId val="126524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17187,7 +17555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110406272"/>
+        <c:crossAx val="126538880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17195,7 +17563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110406272"/>
+        <c:axId val="126538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17205,9 +17573,1540 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110404736"/>
+        <c:crossAx val="126524800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12893281568970547"/>
+          <c:y val="9.2465828135119471E-2"/>
+          <c:w val="0.74598826188393108"/>
+          <c:h val="0.76269420867846061"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$B$17:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$C$17:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$D$17:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="20">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$E$17:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$F$17:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$G$17:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$H$17:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="24">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'組圖(1)'!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'組圖(1)'!$A$17:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'組圖(1)'!$I$17:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="156558848"/>
+        <c:axId val="156560384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="156558848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156560384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156560384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="156558848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -17303,11 +19202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110413696"/>
-        <c:axId val="110415232"/>
+        <c:axId val="127021440"/>
+        <c:axId val="127022976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110413696"/>
+        <c:axId val="127021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17316,7 +19215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110415232"/>
+        <c:crossAx val="127022976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17324,7 +19223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110415232"/>
+        <c:axId val="127022976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17334,7 +19233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110413696"/>
+        <c:crossAx val="127021440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -17620,11 +19519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110547712"/>
-        <c:axId val="110549248"/>
+        <c:axId val="127212544"/>
+        <c:axId val="127234816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110547712"/>
+        <c:axId val="127212544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17634,7 +19533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110549248"/>
+        <c:crossAx val="127234816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17642,7 +19541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110549248"/>
+        <c:axId val="127234816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17653,7 +19552,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110547712"/>
+        <c:crossAx val="127212544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17956,11 +19855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110574976"/>
-        <c:axId val="110580864"/>
+        <c:axId val="127268736"/>
+        <c:axId val="127270272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110574976"/>
+        <c:axId val="127268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17970,12 +19869,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110580864"/>
+        <c:crossAx val="127270272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110580864"/>
+        <c:axId val="127270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17986,7 +19885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110574976"/>
+        <c:crossAx val="127268736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19252,7 +21151,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$V$46:$AB$61" spid="_x0000_s13331"/>
+                  <a14:cameraTool cellRange="$V$46:$AB$61" spid="_x0000_s13336"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -19498,6 +21397,71 @@
     </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20448,203 +22412,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="工作表1"/>
-      <sheetName val="工作表2"/>
-      <sheetName val="工作表3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="B6">
-            <v>0.5</v>
-          </cell>
-          <cell r="C6">
-            <v>0.6</v>
-          </cell>
-          <cell r="D6">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>低筋</v>
-          </cell>
-          <cell r="B7">
-            <v>3580</v>
-          </cell>
-          <cell r="C7">
-            <v>3651</v>
-          </cell>
-          <cell r="D7">
-            <v>3448</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>中筋</v>
-          </cell>
-          <cell r="B8">
-            <v>3550</v>
-          </cell>
-          <cell r="C8">
-            <v>3525</v>
-          </cell>
-          <cell r="D8">
-            <v>3555</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>高筋</v>
-          </cell>
-          <cell r="B9">
-            <v>3448</v>
-          </cell>
-          <cell r="C9">
-            <v>3440</v>
-          </cell>
-          <cell r="D9">
-            <v>3552</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.5</v>
-          </cell>
-          <cell r="C11">
-            <v>0.6</v>
-          </cell>
-          <cell r="D11">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>低筋</v>
-          </cell>
-          <cell r="B12">
-            <v>0.38</v>
-          </cell>
-          <cell r="C12">
-            <v>0.39</v>
-          </cell>
-          <cell r="D12">
-            <v>0.57999999999999996</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>中筋</v>
-          </cell>
-          <cell r="B13">
-            <v>0.48</v>
-          </cell>
-          <cell r="C13">
-            <v>0.61</v>
-          </cell>
-          <cell r="D13">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>高筋</v>
-          </cell>
-          <cell r="B14">
-            <v>0.39</v>
-          </cell>
-          <cell r="C14">
-            <v>0.41</v>
-          </cell>
-          <cell r="D14">
-            <v>0.59</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.5</v>
-          </cell>
-          <cell r="C16">
-            <v>0.6</v>
-          </cell>
-          <cell r="D16">
-            <v>0.75</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>低筋</v>
-          </cell>
-          <cell r="B17">
-            <v>5.5</v>
-          </cell>
-          <cell r="C17">
-            <v>6.5</v>
-          </cell>
-          <cell r="D17">
-            <v>5.5</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>中筋</v>
-          </cell>
-          <cell r="B18">
-            <v>5.4</v>
-          </cell>
-          <cell r="C18">
-            <v>8.5</v>
-          </cell>
-          <cell r="D18">
-            <v>4</v>
-          </cell>
-          <cell r="AJ18">
-            <v>0.5</v>
-          </cell>
-          <cell r="AK18">
-            <v>2.4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>高筋</v>
-          </cell>
-          <cell r="B19">
-            <v>5.3</v>
-          </cell>
-          <cell r="C19">
-            <v>5.4</v>
-          </cell>
-          <cell r="D19">
-            <v>5.5</v>
-          </cell>
-          <cell r="AJ19">
-            <v>0.6</v>
-          </cell>
-          <cell r="AK19">
-            <v>2.4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="AJ20">
-            <v>0.75</v>
-          </cell>
-          <cell r="AK20">
-            <v>2.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23663,37 +25430,37 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
       <c r="R16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="8:12">
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="8:12">
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="8:12">
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24097,20 +25864,20 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
-      <c r="R45" s="44" t="s">
+      <c r="R45" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
     </row>
     <row r="59" spans="1:9">
       <c r="E59" t="s">
@@ -24129,20 +25896,20 @@
       <c r="I60" s="23"/>
     </row>
     <row r="74" spans="4:9" ht="16.5" customHeight="1">
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="45"/>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="47"/>
       <c r="I74" s="39"/>
     </row>
     <row r="75" spans="4:9">
       <c r="D75" s="39"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
       <c r="I75" s="39"/>
     </row>
   </sheetData>
@@ -24254,23 +26021,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="R43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W68" sqref="W68"/>
     </sheetView>
   </sheetViews>
@@ -24315,13 +26069,13 @@
       <c r="A6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="43">
         <v>0.5</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="43">
         <v>0.6</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -24371,13 +26125,13 @@
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="43">
         <v>0.5</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="43">
         <v>0.6</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -24427,13 +26181,13 @@
       <c r="A16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>0.5</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="43">
         <v>0.6</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="43">
         <v>0.75</v>
       </c>
     </row>
@@ -24506,7 +26260,7 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="Q56" s="46">
+      <c r="Q56" s="42">
         <v>0.5</v>
       </c>
       <c r="R56">
@@ -24520,7 +26274,7 @@
       </c>
     </row>
     <row r="57" spans="1:20">
-      <c r="Q57" s="46">
+      <c r="Q57" s="42">
         <v>0.6</v>
       </c>
       <c r="R57">
@@ -24534,7 +26288,7 @@
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="Q58" s="46">
+      <c r="Q58" s="42">
         <v>0.75</v>
       </c>
       <c r="R58">
@@ -24553,7 +26307,7 @@
       </c>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="46">
+      <c r="A63" s="42">
         <v>0.5</v>
       </c>
       <c r="B63">
@@ -24561,7 +26315,7 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="46">
+      <c r="A64" s="42">
         <v>0.6</v>
       </c>
       <c r="B64">
@@ -24569,7 +26323,7 @@
       </c>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="46">
+      <c r="A65" s="42">
         <v>0.75</v>
       </c>
       <c r="B65">
@@ -24603,6 +26357,596 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
+      </c>
+      <c r="H41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -24718,26 +27062,26 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" customHeight="1">
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="23"/>
@@ -24759,56 +27103,56 @@
       <c r="Q16" s="23"/>
     </row>
     <row r="31" spans="4:17" ht="16.5" customHeight="1">
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
       <c r="H31" s="15"/>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
     </row>
     <row r="32" spans="4:17">
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
       <c r="H32" s="15"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="23"/>
@@ -25014,11 +27358,11 @@
       <c r="S15" s="23"/>
     </row>
     <row r="29" spans="5:18" ht="16.5" customHeight="1">
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
       <c r="J29" t="s">
         <v>108</v>
       </c>
@@ -25031,9 +27375,9 @@
     </row>
     <row r="30" spans="5:18">
       <c r="E30" s="20"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -25299,18 +27643,18 @@
       <c r="V31" s="40"/>
     </row>
     <row r="45" spans="11:14">
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
     </row>
     <row r="46" spans="11:14">
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
